--- a/GP05MOAS-GL362/Omaha_Cal_Info_GP05MOAS-GL362_00001.xlsx
+++ b/GP05MOAS-GL362/Omaha_Cal_Info_GP05MOAS-GL362_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="8055" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="8055" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Ref Des</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>144° 48.32' W</t>
-  </si>
-  <si>
-    <t>0m</t>
   </si>
   <si>
     <t>MV1404</t>
@@ -789,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,21 +845,21 @@
         <v>9</v>
       </c>
       <c r="L1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="16">
         <v>362</v>
@@ -885,11 +882,11 @@
       <c r="H2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="14">
@@ -927,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -969,7 +966,7 @@
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6">
         <v>362</v>
@@ -981,12 +978,12 @@
         <v>362</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="9">
         <v>362</v>
@@ -995,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>15</v>
@@ -1004,13 +1001,13 @@
         <v>140</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="23">
         <v>362</v>
@@ -1019,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>16</v>
@@ -1028,13 +1025,13 @@
         <v>700</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="23">
         <v>362</v>
@@ -1043,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>17</v>
@@ -1052,13 +1049,13 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="23">
         <v>362</v>
@@ -1067,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>18</v>
@@ -1076,13 +1073,13 @@
         <v>3.9E-2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6">
         <v>362</v>
@@ -1094,12 +1091,12 @@
         <v>159</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="6">
         <v>362</v>
@@ -1111,7 +1108,7 @@
         <v>9064</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">

--- a/GP05MOAS-GL362/Omaha_Cal_Info_GP05MOAS-GL362_00001.xlsx
+++ b/GP05MOAS-GL362/Omaha_Cal_Info_GP05MOAS-GL362_00001.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="8055" tabRatio="377"/>
+    <workbookView xWindow="11580" yWindow="9300" windowWidth="22860" windowHeight="9720" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,12 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$105</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$376</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,18 +99,12 @@
     <t>CC_depolarization_ratio</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>50° 04.70' N</t>
   </si>
   <si>
     <t>144° 48.32' W</t>
   </si>
   <si>
-    <t>MV1404</t>
-  </si>
-  <si>
     <t>Lat</t>
   </si>
   <si>
@@ -149,6 +148,12 @@
   </si>
   <si>
     <t>GP05MOAS-GL362-04-CTDGVM000</t>
+  </si>
+  <si>
+    <t>Lost at sea</t>
+  </si>
+  <si>
+    <t>CGCS Tully</t>
   </si>
 </sst>
 </file>
@@ -159,7 +164,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -239,8 +244,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +276,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -312,7 +335,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -320,16 +343,16 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -340,7 +363,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -407,6 +430,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,31 +818,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="31.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="31.5" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,21 +868,21 @@
         <v>9</v>
       </c>
       <c r="L1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1">
       <c r="A2" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="16">
         <v>362</v>
@@ -873,22 +896,24 @@
       <c r="E2" s="18">
         <v>0</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="28">
+        <v>41886</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="I2" s="19">
         <v>0</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="16"/>
+      <c r="J2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="L2" s="14">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>50.078333333333333</v>
@@ -904,19 +929,24 @@
         <v>41887</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -924,27 +954,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125"/>
-    <col min="9" max="9" width="11.85546875"/>
-    <col min="10" max="10" width="14.42578125"/>
-    <col min="11" max="11" width="13.42578125"/>
-    <col min="12" max="1026" width="8.7109375"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -964,9 +989,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="6" customFormat="1">
       <c r="A3" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6">
         <v>362</v>
@@ -978,12 +1003,12 @@
         <v>362</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="9">
         <v>362</v>
@@ -992,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>15</v>
@@ -1001,13 +1026,13 @@
         <v>140</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="6" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="23">
         <v>362</v>
@@ -1016,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>16</v>
@@ -1025,13 +1050,13 @@
         <v>700</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="6" customFormat="1">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="23">
         <v>362</v>
@@ -1040,22 +1065,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="25">
-        <v>1.1299999999999999</v>
+      <c r="F6" s="27">
+        <v>1.0960000000000001</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="6" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="23">
         <v>362</v>
@@ -1064,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>18</v>
@@ -1073,13 +1098,13 @@
         <v>3.9E-2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="6" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6">
         <v>362</v>
@@ -1091,12 +1116,12 @@
         <v>159</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1">
       <c r="A9" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6">
         <v>362</v>
@@ -1108,26 +1133,26 @@
         <v>9064</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1">
       <c r="C10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1135,6 +1160,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>